--- a/manufacturing/Cicada-4G-v1_biuld0_2019-04-15/cicada-4g-v1-BOM-2019-04-13.xlsx
+++ b/manufacturing/Cicada-4G-v1_biuld0_2019-04-15/cicada-4g-v1-BOM-2019-04-13.xlsx
@@ -496,20 +496,45 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -538,12 +563,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,6 +605,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00CC00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -566,27 +675,26 @@
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="42.25"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="63.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.4438775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.2295918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.7704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5867346938776"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,812 +729,928 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="3" t="n">
         <v>0.0036</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="3" t="n">
         <v>0.0015</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="3" t="n">
         <v>0.0015</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="3" t="n">
         <v>0.0352</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="3" t="n">
         <v>0.0103</v>
       </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="n">
         <v>0.0015</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="3" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="3" t="n">
         <v>0.011</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="3" t="n">
         <v>0.008</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="3" t="n">
         <v>0.0048</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="3" t="n">
         <v>0.0396</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="3" t="n">
         <v>0.0586</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="3" t="n">
         <v>0.0461</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="3" t="n">
         <v>0.0795</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="3" t="n">
         <v>0.0024</v>
       </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="1" t="n">
+      <c r="I19" s="3" t="n">
         <v>0.0113</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="3" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I21" s="3" t="n">
         <v>0.0306</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="1" t="n">
+      <c r="I22" s="3" t="n">
         <v>0.0261</v>
       </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="1" t="n">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I24" s="1" t="n">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="n">
         <v>0.0015</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I25" s="1" t="n">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="n">
         <v>0.0015</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I26" s="1" t="n">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="n">
         <v>0.0015</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I27" s="1" t="n">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="n">
         <v>0.0015</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I28" s="1" t="n">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="1" t="n">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="n">
         <v>0.0015</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I30" s="1" t="n">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="n">
         <v>0.0015</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I31" s="1" t="n">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="n">
         <v>0.0015</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I33" s="1" t="n">
+      <c r="I33" s="3" t="n">
         <v>0.044</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I34" s="1" t="n">
+      <c r="I34" s="3" t="n">
         <v>0.0285</v>
       </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
